--- a/biology/Botanique/Argocoffeopsis/Argocoffeopsis.xlsx
+++ b/biology/Botanique/Argocoffeopsis/Argocoffeopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argocoffeopsis Lebrun est un genre de plantes de la famille des Rubiacées.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des sous-espèces et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 décembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 décembre 2017) :
 Argocoffeopsis afzelii (Hiern) Robbr.
 Argocoffeopsis eketensis (Wernham) Robbr.
 Argocoffeopsis fosimondi Tchiengué &amp; Cheek
@@ -550,12 +566,12 @@
 Argocoffeopsis scandens (K.Schum.) Lebrun
 Argocoffeopsis spathulata A.P.Davis &amp; Sonké
 Argocoffeopsis subcordata (Hiern) Lebrun
-Selon NCBI  (7 décembre 2017)[3] :
+Selon NCBI  (7 décembre 2017) :
 Argocoffeopsis eketensis
 Argocoffeopsis rupestris
 sous-espèce Argocoffeopsis rupestris subsp. thonneri
 Argocoffeopsis scandens
-Selon The Plant List            (7 décembre 2017)[4] :
+Selon The Plant List            (7 décembre 2017) :
 Argocoffeopsis afzelii (Hiern) Robbr.
 Argocoffeopsis eketensis (Wernham) Robbr.
 Argocoffeopsis fosimondi Tchiengué &amp; Cheek
@@ -566,7 +582,7 @@
 Argocoffeopsis scandens (K.Schum.) Lebrun
 Argocoffeopsis spathulata A.P.Davis &amp; Sonké
 Argocoffeopsis subcordata (Hiern) Lebrun
-Selon Tropicos                                           (7 décembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Argocoffeopsis afzelii (Hiern) Robbr.
 Argocoffeopsis eketensis Robbr.
 Argocoffeopsis jasminoides Robbr.
